--- a/TestExcelData/Error.xlsx
+++ b/TestExcelData/Error.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHUB\MNU_CE_2020_Capstone\TestExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\# Github\MNU_CE_2020_Capstone\TestExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE440860-2D94-46DF-9032-1F7F89E56108}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558AF65B-B8CF-4D81-BD73-72E2442A9747}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2865" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,17 +25,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>판매일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>상품코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매수량</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -362,10 +358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -373,37 +369,28 @@
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43832</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43832</v>
       </c>
       <c r="B3">
         <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
